--- a/Time-Card/РЕЗОНАТОРЫ/Microchip/SA45/Latest/ECAD/ECAD/Output Package/Assembly/bom/SA45_DaughterCard-RevX1_bom.xlsx
+++ b/Time-Card/РЕЗОНАТОРЫ/Microchip/SA45/Latest/ECAD/ECAD/Output Package/Assembly/bom/SA45_DaughterCard-RevX1_bom.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\P4_Workspaces\research\users\ChrisXRobles\Tasks\T131322016 - SA45 Daughter Card\outputs\assembly_SA45_DaughterCard\bom\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\QUANTUM\Time-Card\РЕЗОНАТОРЫ\Microchip\SA45\Latest\ECAD\ECAD\Output Package\Assembly\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5EFE260A-4509-4FE4-AE4A-F1F58EC83741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BC1E953-0A93-4412-BF93-5E539E424D04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25485" yWindow="3510" windowWidth="17280" windowHeight="8970" xr2:uid="{96274464-A311-4244-A661-15A8D5467477}"/>
+    <workbookView xWindow="348" yWindow="576" windowWidth="20976" windowHeight="10956" activeTab="1" xr2:uid="{96274464-A311-4244-A661-15A8D5467477}"/>
   </bookViews>
   <sheets>
     <sheet name="SA45_DaughterCard-RevX1_bom" sheetId="1" r:id="rId1"/>
+    <sheet name="IQD_ICPT-1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'SA45_DaughterCard-RevX1_bom'!$1:$1</definedName>
@@ -30,8 +31,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="101">
   <si>
     <t>Designator</t>
   </si>
@@ -406,7 +405,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -422,9 +421,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -462,7 +461,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -568,7 +567,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -710,7 +709,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -720,7 +719,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F44559D7-8ADF-40C6-96BC-9C6927A4A336}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A20" sqref="A1:H20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -729,7 +730,8 @@
     <col min="3" max="3" width="21.5546875" customWidth="1"/>
     <col min="4" max="4" width="28.5546875" customWidth="1"/>
     <col min="5" max="5" width="9.33203125" customWidth="1"/>
-    <col min="6" max="8" width="16" customWidth="1"/>
+    <col min="6" max="7" width="16" customWidth="1"/>
+    <col min="8" max="8" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -1254,4 +1256,548 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD1A6AFD-9863-4136-8A94-DD10887C3636}">
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" customWidth="1"/>
+    <col min="3" max="3" width="28.5546875" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="17.109375" customWidth="1"/>
+    <col min="6" max="6" width="15.21875" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" customWidth="1"/>
+    <col min="8" max="8" width="30" customWidth="1"/>
+    <col min="9" max="9" width="18.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="1">
+        <v>4</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="1">
+        <v>4</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="1">
+        <v>10</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>